--- a/cours.xlsx
+++ b/cours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/projets/techinfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13375412-202A-034A-A09D-FECD1F155DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12932275-0A16-B64D-AA06-A2664DE0EEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{643C1454-08AC-524D-90A3-F7CC1ACD2A43}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Cours</t>
   </si>
@@ -235,12 +235,40 @@
   <si>
     <t>Titre</t>
   </si>
+  <si>
+    <t>Cible de formation</t>
+  </si>
+  <si>
+    <t>À la fin du cours, l’élève sera capable d’analyser des problèmes contextuels d’informatique à partir de situations problèmes et de données quantitatives ainsi que de les résoudre en traitant les nombres à représenter dans la mémoire d’un ordinateur et en modélisant les raisonnements logiques à plusieurs variables.</t>
+  </si>
+  <si>
+    <t>À la fin du cours l'élève sera capable, dans un environnement ergonomique, de préparer un ordinateur et d'en faire l'installation. Il sera aussi en mesure d’installer le système d'exploitation ainsi que les logiciels requis.</t>
+  </si>
+  <si>
+    <t>À la fin du cours, l'élève sera capable de traiter l’information relative aux réalités du milieu du travail en informatique en utilisant le système d’exploitation macOS et les logiciels de bureautique infonuagiques</t>
+  </si>
+  <si>
+    <t>À la fin du cours, l'élève sera capable de résoudre des problèmes simples en traduisant des algorithmes dans un langage de programmation.</t>
+  </si>
+  <si>
+    <t>À la fin du cours, l'élève sera capable d'effectuer le développement côté client pour des applications Web.</t>
+  </si>
+  <si>
+    <t>À la fin de ce cours, l'élève sera capable d'effectuer le développement d’applications Web transactionnelles.</t>
+  </si>
+  <si>
+    <t>Cours préalables</t>
+  </si>
+  <si>
+    <t>420-1D6-VI : Programmation 1 
+420-1E6-VI : Design Web</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -273,6 +301,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF333333"/>
+      <name val="PT Sans"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -294,12 +329,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,8 +515,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -523,8 +564,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -571,8 +612,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -764,8 +805,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -813,8 +854,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -861,8 +902,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1199,8 +1240,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1248,8 +1289,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1296,8 +1337,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1489,8 +1530,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1538,8 +1579,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1586,8 +1627,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1779,8 +1820,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1828,8 +1869,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1876,8 +1917,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2069,8 +2110,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2118,8 +2159,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2166,8 +2207,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2359,8 +2400,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2408,8 +2449,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2456,8 +2497,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24979,75 +25020,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A91030F-DD86-2042-B290-CE7625F78EDF}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.33203125" customWidth="1"/>
+    <col min="3" max="3" width="78.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="45.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -25055,7 +25125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -25063,7 +25133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -25071,7 +25141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -25079,7 +25149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -25087,7 +25157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -25095,7 +25165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -25103,7 +25173,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -25111,7 +25181,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -25529,6 +25599,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>